--- a/excel.xlsx
+++ b/excel.xlsx
@@ -75,22 +75,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,25 +391,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -423,9 +416,6 @@
       <c r="B2" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
@@ -434,96 +424,37 @@
       <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
         <v>1.2</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1">
         <v>0.5</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1">
         <v>0.3</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1">
         <v>1.8</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>x1</t>
   </si>
   <si>
     <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
   </si>
 </sst>
 </file>
@@ -75,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -85,6 +88,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -391,7 +397,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -399,6 +405,7 @@
   <cols>
     <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -408,53 +415,74 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
-        <v>0.9</v>
+        <v>-512</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>234</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>2.4</v>
+        <v>-12</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="2">
+        <v>312</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
-        <v>0.3</v>
+        <v>-52</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
-        <v>1.8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>-23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1523</v>
       </c>
     </row>
   </sheetData>
